--- a/datasets/cafo2.xlsx
+++ b/datasets/cafo2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO_New_Form_V2/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://michiganstate-my.sharepoint.com/personal/fonsec16_msu_edu/Documents/Documents/CAFO-July-2021/Update-Website-July-2021/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_094E5B74BA1A10509FC98D81F68A35AA9A3D24E0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{0B9AD77F-5D63-45BA-B265-51C80ED2C85D}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_094E5B74BA1A10509FC98D81F68A35AA9A3D24E0" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{FD0ED422-BD82-45C6-B81C-688987D36A72}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Treatment-Outcome data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Treatment-Outcome data'!$A$1:$AJ$551</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Treatment-Outcome data'!$A$1:$AJ$549</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9908" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9898" uniqueCount="866">
   <si>
     <t>Refid</t>
   </si>
@@ -2637,31 +2637,13 @@
   </si>
   <si>
     <t>lat</t>
-  </si>
-  <si>
-    <t>Fonseca</t>
-  </si>
-  <si>
-    <t>Lansing</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>living systematic review of the community human health effects associated with residing near animal feeding operations</t>
-  </si>
-  <si>
-    <t>O'Conoor</t>
-  </si>
-  <si>
-    <t>An assessment of the regional and national socio-economic impacts of the 2007 Rift Valley fever outbreak in Kenya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2690,14 +2672,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2716,12 +2690,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -2730,10 +2703,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
@@ -3018,14 +2989,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:AJ552"/>
+  <dimension ref="A1:AJ550"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H332" sqref="H332"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A428" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A550" sqref="A550:XFD550"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3106,7 +3077,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -3171,7 +3142,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -3236,7 +3207,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -3301,7 +3272,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3366,7 +3337,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3431,7 +3402,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -3496,7 +3467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3561,7 +3532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -3626,7 +3597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3691,7 +3662,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3756,7 +3727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -3821,7 +3792,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -3886,7 +3857,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -3951,7 +3922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>47</v>
       </c>
@@ -4010,7 +3981,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -4072,7 +4043,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -4134,7 +4105,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -4196,7 +4167,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -4255,7 +4226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -4314,7 +4285,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -4376,7 +4347,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -4438,7 +4409,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -4500,7 +4471,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>47</v>
       </c>
@@ -4562,7 +4533,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -4624,7 +4595,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>47</v>
       </c>
@@ -4686,7 +4657,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>47</v>
       </c>
@@ -4745,7 +4716,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -4807,7 +4778,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -4869,7 +4840,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>47</v>
       </c>
@@ -4931,7 +4902,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
@@ -4993,7 +4964,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>47</v>
       </c>
@@ -5052,7 +5023,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -5111,7 +5082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -5173,7 +5144,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>47</v>
       </c>
@@ -5235,7 +5206,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -5297,7 +5268,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>47</v>
       </c>
@@ -5359,7 +5330,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -5421,7 +5392,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>47</v>
       </c>
@@ -5483,7 +5454,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>47</v>
       </c>
@@ -5542,7 +5513,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5604,7 +5575,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>47</v>
       </c>
@@ -5666,7 +5637,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -5728,7 +5699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -5790,7 +5761,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -5849,7 +5820,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -5908,7 +5879,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
@@ -5970,7 +5941,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -6032,7 +6003,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -6094,7 +6065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -6156,7 +6127,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -6218,7 +6189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>47</v>
       </c>
@@ -6280,7 +6251,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>47</v>
       </c>
@@ -6339,7 +6310,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -6401,7 +6372,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -6463,7 +6434,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -6525,7 +6496,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="57" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -6587,7 +6558,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -6646,7 +6617,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -6708,7 +6679,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>47</v>
       </c>
@@ -6770,7 +6741,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>47</v>
       </c>
@@ -6832,7 +6803,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>47</v>
       </c>
@@ -6894,7 +6865,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>47</v>
       </c>
@@ -6956,7 +6927,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>47</v>
       </c>
@@ -7018,7 +6989,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>47</v>
       </c>
@@ -7080,7 +7051,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>141</v>
       </c>
@@ -7142,7 +7113,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>141</v>
       </c>
@@ -7204,7 +7175,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -7266,7 +7237,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>141</v>
       </c>
@@ -7328,7 +7299,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>141</v>
       </c>
@@ -7390,7 +7361,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="71" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>141</v>
       </c>
@@ -7452,7 +7423,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>141</v>
       </c>
@@ -7514,7 +7485,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -7576,7 +7547,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>141</v>
       </c>
@@ -7638,7 +7609,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -7700,7 +7671,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>141</v>
       </c>
@@ -7762,7 +7733,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>141</v>
       </c>
@@ -7824,7 +7795,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>141</v>
       </c>
@@ -7886,7 +7857,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>141</v>
       </c>
@@ -7948,7 +7919,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="80" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>141</v>
       </c>
@@ -8010,7 +7981,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>141</v>
       </c>
@@ -8072,7 +8043,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>141</v>
       </c>
@@ -8134,7 +8105,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>141</v>
       </c>
@@ -8196,7 +8167,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>178</v>
       </c>
@@ -8255,7 +8226,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>178</v>
       </c>
@@ -8314,7 +8285,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>178</v>
       </c>
@@ -8373,7 +8344,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>178</v>
       </c>
@@ -8432,7 +8403,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>178</v>
       </c>
@@ -8491,7 +8462,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="89" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>199</v>
       </c>
@@ -8569,7 +8540,7 @@
       <c r="AI89" s="2"/>
       <c r="AJ89" s="2"/>
     </row>
-    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>199</v>
       </c>
@@ -8647,7 +8618,7 @@
       <c r="AI90" s="2"/>
       <c r="AJ90" s="2"/>
     </row>
-    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>199</v>
       </c>
@@ -8725,7 +8696,7 @@
       <c r="AI91" s="2"/>
       <c r="AJ91" s="2"/>
     </row>
-    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>199</v>
       </c>
@@ -8803,7 +8774,7 @@
       <c r="AI92" s="2"/>
       <c r="AJ92" s="2"/>
     </row>
-    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>199</v>
       </c>
@@ -8881,7 +8852,7 @@
       <c r="AI93" s="2"/>
       <c r="AJ93" s="2"/>
     </row>
-    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>199</v>
       </c>
@@ -8959,7 +8930,7 @@
       <c r="AI94" s="2"/>
       <c r="AJ94" s="2"/>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
@@ -9037,7 +9008,7 @@
       <c r="AI95" s="2"/>
       <c r="AJ95" s="2"/>
     </row>
-    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>199</v>
       </c>
@@ -9115,7 +9086,7 @@
       <c r="AI96" s="2"/>
       <c r="AJ96" s="2"/>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>199</v>
       </c>
@@ -9193,7 +9164,7 @@
       <c r="AI97" s="2"/>
       <c r="AJ97" s="2"/>
     </row>
-    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>199</v>
       </c>
@@ -9271,7 +9242,7 @@
       <c r="AI98" s="2"/>
       <c r="AJ98" s="2"/>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>199</v>
       </c>
@@ -9349,7 +9320,7 @@
       <c r="AI99" s="2"/>
       <c r="AJ99" s="2"/>
     </row>
-    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>199</v>
       </c>
@@ -9427,7 +9398,7 @@
       <c r="AI100" s="2"/>
       <c r="AJ100" s="2"/>
     </row>
-    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>199</v>
       </c>
@@ -9505,7 +9476,7 @@
       <c r="AI101" s="2"/>
       <c r="AJ101" s="2"/>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>199</v>
       </c>
@@ -9583,7 +9554,7 @@
       <c r="AI102" s="2"/>
       <c r="AJ102" s="2"/>
     </row>
-    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>199</v>
       </c>
@@ -9661,7 +9632,7 @@
       <c r="AI103" s="2"/>
       <c r="AJ103" s="2"/>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>199</v>
       </c>
@@ -9739,7 +9710,7 @@
       <c r="AI104" s="2"/>
       <c r="AJ104" s="2"/>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>199</v>
       </c>
@@ -9817,7 +9788,7 @@
       <c r="AI105" s="2"/>
       <c r="AJ105" s="2"/>
     </row>
-    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>199</v>
       </c>
@@ -9895,7 +9866,7 @@
       <c r="AI106" s="2"/>
       <c r="AJ106" s="2"/>
     </row>
-    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>199</v>
       </c>
@@ -9973,7 +9944,7 @@
       <c r="AI107" s="2"/>
       <c r="AJ107" s="2"/>
     </row>
-    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>199</v>
       </c>
@@ -10051,7 +10022,7 @@
       <c r="AI108" s="2"/>
       <c r="AJ108" s="2"/>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>199</v>
       </c>
@@ -10129,7 +10100,7 @@
       <c r="AI109" s="2"/>
       <c r="AJ109" s="2"/>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>199</v>
       </c>
@@ -10207,7 +10178,7 @@
       <c r="AI110" s="2"/>
       <c r="AJ110" s="2"/>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>199</v>
       </c>
@@ -10285,7 +10256,7 @@
       <c r="AI111" s="2"/>
       <c r="AJ111" s="2"/>
     </row>
-    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>199</v>
       </c>
@@ -10363,7 +10334,7 @@
       <c r="AI112" s="2"/>
       <c r="AJ112" s="2"/>
     </row>
-    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>199</v>
       </c>
@@ -10441,7 +10412,7 @@
       <c r="AI113" s="2"/>
       <c r="AJ113" s="2"/>
     </row>
-    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>199</v>
       </c>
@@ -10519,7 +10490,7 @@
       <c r="AI114" s="2"/>
       <c r="AJ114" s="2"/>
     </row>
-    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>199</v>
       </c>
@@ -10597,7 +10568,7 @@
       <c r="AI115" s="2"/>
       <c r="AJ115" s="2"/>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>199</v>
       </c>
@@ -10675,7 +10646,7 @@
       <c r="AI116" s="2"/>
       <c r="AJ116" s="2"/>
     </row>
-    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>199</v>
       </c>
@@ -10753,7 +10724,7 @@
       <c r="AI117" s="2"/>
       <c r="AJ117" s="2"/>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>199</v>
       </c>
@@ -10831,7 +10802,7 @@
       <c r="AI118" s="2"/>
       <c r="AJ118" s="2"/>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>199</v>
       </c>
@@ -10909,7 +10880,7 @@
       <c r="AI119" s="2"/>
       <c r="AJ119" s="2"/>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>199</v>
       </c>
@@ -10987,7 +10958,7 @@
       <c r="AI120" s="2"/>
       <c r="AJ120" s="2"/>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>199</v>
       </c>
@@ -11065,7 +11036,7 @@
       <c r="AI121" s="2"/>
       <c r="AJ121" s="2"/>
     </row>
-    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>199</v>
       </c>
@@ -11143,7 +11114,7 @@
       <c r="AI122" s="2"/>
       <c r="AJ122" s="2"/>
     </row>
-    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>199</v>
       </c>
@@ -11221,7 +11192,7 @@
       <c r="AI123" s="2"/>
       <c r="AJ123" s="2"/>
     </row>
-    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>199</v>
       </c>
@@ -11299,7 +11270,7 @@
       <c r="AI124" s="2"/>
       <c r="AJ124" s="2"/>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>199</v>
       </c>
@@ -11377,7 +11348,7 @@
       <c r="AI125" s="2"/>
       <c r="AJ125" s="2"/>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>199</v>
       </c>
@@ -11455,7 +11426,7 @@
       <c r="AI126" s="2"/>
       <c r="AJ126" s="2"/>
     </row>
-    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>199</v>
       </c>
@@ -11533,7 +11504,7 @@
       <c r="AI127" s="2"/>
       <c r="AJ127" s="2"/>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>199</v>
       </c>
@@ -11611,7 +11582,7 @@
       <c r="AI128" s="2"/>
       <c r="AJ128" s="2"/>
     </row>
-    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>199</v>
       </c>
@@ -11689,7 +11660,7 @@
       <c r="AI129" s="2"/>
       <c r="AJ129" s="2"/>
     </row>
-    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>199</v>
       </c>
@@ -11767,7 +11738,7 @@
       <c r="AI130" s="2"/>
       <c r="AJ130" s="2"/>
     </row>
-    <row r="131" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>199</v>
       </c>
@@ -11845,7 +11816,7 @@
       <c r="AI131" s="2"/>
       <c r="AJ131" s="2"/>
     </row>
-    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>199</v>
       </c>
@@ -11923,7 +11894,7 @@
       <c r="AI132" s="2"/>
       <c r="AJ132" s="2"/>
     </row>
-    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>199</v>
       </c>
@@ -12001,7 +11972,7 @@
       <c r="AI133" s="2"/>
       <c r="AJ133" s="2"/>
     </row>
-    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>199</v>
       </c>
@@ -12079,7 +12050,7 @@
       <c r="AI134" s="2"/>
       <c r="AJ134" s="2"/>
     </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>199</v>
       </c>
@@ -12157,7 +12128,7 @@
       <c r="AI135" s="2"/>
       <c r="AJ135" s="2"/>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>199</v>
       </c>
@@ -12235,7 +12206,7 @@
       <c r="AI136" s="2"/>
       <c r="AJ136" s="2"/>
     </row>
-    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>199</v>
       </c>
@@ -12313,7 +12284,7 @@
       <c r="AI137" s="2"/>
       <c r="AJ137" s="2"/>
     </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>199</v>
       </c>
@@ -12391,7 +12362,7 @@
       <c r="AI138" s="2"/>
       <c r="AJ138" s="2"/>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>199</v>
       </c>
@@ -12469,7 +12440,7 @@
       <c r="AI139" s="2"/>
       <c r="AJ139" s="2"/>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>199</v>
       </c>
@@ -12547,7 +12518,7 @@
       <c r="AI140" s="2"/>
       <c r="AJ140" s="2"/>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>199</v>
       </c>
@@ -12625,7 +12596,7 @@
       <c r="AI141" s="2"/>
       <c r="AJ141" s="2"/>
     </row>
-    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>199</v>
       </c>
@@ -12703,7 +12674,7 @@
       <c r="AI142" s="2"/>
       <c r="AJ142" s="2"/>
     </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>199</v>
       </c>
@@ -12781,7 +12752,7 @@
       <c r="AI143" s="2"/>
       <c r="AJ143" s="2"/>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>199</v>
       </c>
@@ -12859,7 +12830,7 @@
       <c r="AI144" s="2"/>
       <c r="AJ144" s="2"/>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>199</v>
       </c>
@@ -12937,7 +12908,7 @@
       <c r="AI145" s="2"/>
       <c r="AJ145" s="2"/>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>199</v>
       </c>
@@ -13015,7 +12986,7 @@
       <c r="AI146" s="2"/>
       <c r="AJ146" s="2"/>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>199</v>
       </c>
@@ -13093,7 +13064,7 @@
       <c r="AI147" s="2"/>
       <c r="AJ147" s="2"/>
     </row>
-    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>199</v>
       </c>
@@ -13171,7 +13142,7 @@
       <c r="AI148" s="2"/>
       <c r="AJ148" s="2"/>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>199</v>
       </c>
@@ -13249,7 +13220,7 @@
       <c r="AI149" s="2"/>
       <c r="AJ149" s="2"/>
     </row>
-    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>199</v>
       </c>
@@ -13327,7 +13298,7 @@
       <c r="AI150" s="2"/>
       <c r="AJ150" s="2"/>
     </row>
-    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>199</v>
       </c>
@@ -13405,7 +13376,7 @@
       <c r="AI151" s="2"/>
       <c r="AJ151" s="2"/>
     </row>
-    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>199</v>
       </c>
@@ -13483,7 +13454,7 @@
       <c r="AI152" s="2"/>
       <c r="AJ152" s="2"/>
     </row>
-    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>199</v>
       </c>
@@ -13561,7 +13532,7 @@
       <c r="AI153" s="2"/>
       <c r="AJ153" s="2"/>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>199</v>
       </c>
@@ -13639,7 +13610,7 @@
       <c r="AI154" s="2"/>
       <c r="AJ154" s="2"/>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>199</v>
       </c>
@@ -13717,7 +13688,7 @@
       <c r="AI155" s="2"/>
       <c r="AJ155" s="2"/>
     </row>
-    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>199</v>
       </c>
@@ -13795,7 +13766,7 @@
       <c r="AI156" s="2"/>
       <c r="AJ156" s="2"/>
     </row>
-    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>199</v>
       </c>
@@ -13873,7 +13844,7 @@
       <c r="AI157" s="2"/>
       <c r="AJ157" s="2"/>
     </row>
-    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>199</v>
       </c>
@@ -13951,7 +13922,7 @@
       <c r="AI158" s="2"/>
       <c r="AJ158" s="2"/>
     </row>
-    <row r="159" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>199</v>
       </c>
@@ -14029,7 +14000,7 @@
       <c r="AI159" s="2"/>
       <c r="AJ159" s="2"/>
     </row>
-    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>199</v>
       </c>
@@ -14107,7 +14078,7 @@
       <c r="AI160" s="2"/>
       <c r="AJ160" s="2"/>
     </row>
-    <row r="161" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>199</v>
       </c>
@@ -14185,7 +14156,7 @@
       <c r="AI161" s="2"/>
       <c r="AJ161" s="2"/>
     </row>
-    <row r="162" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>199</v>
       </c>
@@ -14263,7 +14234,7 @@
       <c r="AI162" s="2"/>
       <c r="AJ162" s="2"/>
     </row>
-    <row r="163" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>199</v>
       </c>
@@ -14341,7 +14312,7 @@
       <c r="AI163" s="2"/>
       <c r="AJ163" s="2"/>
     </row>
-    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>199</v>
       </c>
@@ -14419,7 +14390,7 @@
       <c r="AI164" s="2"/>
       <c r="AJ164" s="2"/>
     </row>
-    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>199</v>
       </c>
@@ -14497,7 +14468,7 @@
       <c r="AI165" s="2"/>
       <c r="AJ165" s="2"/>
     </row>
-    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>199</v>
       </c>
@@ -14575,7 +14546,7 @@
       <c r="AI166" s="2"/>
       <c r="AJ166" s="2"/>
     </row>
-    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>199</v>
       </c>
@@ -14653,7 +14624,7 @@
       <c r="AI167" s="2"/>
       <c r="AJ167" s="2"/>
     </row>
-    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>199</v>
       </c>
@@ -14731,7 +14702,7 @@
       <c r="AI168" s="2"/>
       <c r="AJ168" s="2"/>
     </row>
-    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>199</v>
       </c>
@@ -14809,7 +14780,7 @@
       <c r="AI169" s="2"/>
       <c r="AJ169" s="2"/>
     </row>
-    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>199</v>
       </c>
@@ -14887,7 +14858,7 @@
       <c r="AI170" s="2"/>
       <c r="AJ170" s="2"/>
     </row>
-    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>199</v>
       </c>
@@ -14965,7 +14936,7 @@
       <c r="AI171" s="2"/>
       <c r="AJ171" s="2"/>
     </row>
-    <row r="172" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>199</v>
       </c>
@@ -15043,7 +15014,7 @@
       <c r="AI172" s="2"/>
       <c r="AJ172" s="2"/>
     </row>
-    <row r="173" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>199</v>
       </c>
@@ -15121,7 +15092,7 @@
       <c r="AI173" s="2"/>
       <c r="AJ173" s="2"/>
     </row>
-    <row r="174" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>199</v>
       </c>
@@ -15199,7 +15170,7 @@
       <c r="AI174" s="2"/>
       <c r="AJ174" s="2"/>
     </row>
-    <row r="175" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>199</v>
       </c>
@@ -15277,7 +15248,7 @@
       <c r="AI175" s="2"/>
       <c r="AJ175" s="2"/>
     </row>
-    <row r="176" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>199</v>
       </c>
@@ -15355,7 +15326,7 @@
       <c r="AI176" s="2"/>
       <c r="AJ176" s="2"/>
     </row>
-    <row r="177" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>199</v>
       </c>
@@ -15433,7 +15404,7 @@
       <c r="AI177" s="2"/>
       <c r="AJ177" s="2"/>
     </row>
-    <row r="178" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>199</v>
       </c>
@@ -15511,7 +15482,7 @@
       <c r="AI178" s="2"/>
       <c r="AJ178" s="2"/>
     </row>
-    <row r="179" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>199</v>
       </c>
@@ -15589,7 +15560,7 @@
       <c r="AI179" s="2"/>
       <c r="AJ179" s="2"/>
     </row>
-    <row r="180" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>199</v>
       </c>
@@ -15667,7 +15638,7 @@
       <c r="AI180" s="2"/>
       <c r="AJ180" s="2"/>
     </row>
-    <row r="181" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>199</v>
       </c>
@@ -15745,7 +15716,7 @@
       <c r="AI181" s="2"/>
       <c r="AJ181" s="2"/>
     </row>
-    <row r="182" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>199</v>
       </c>
@@ -15823,7 +15794,7 @@
       <c r="AI182" s="2"/>
       <c r="AJ182" s="2"/>
     </row>
-    <row r="183" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>199</v>
       </c>
@@ -15901,7 +15872,7 @@
       <c r="AI183" s="2"/>
       <c r="AJ183" s="2"/>
     </row>
-    <row r="184" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>199</v>
       </c>
@@ -15979,7 +15950,7 @@
       <c r="AI184" s="2"/>
       <c r="AJ184" s="2"/>
     </row>
-    <row r="185" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>199</v>
       </c>
@@ -16057,7 +16028,7 @@
       <c r="AI185" s="2"/>
       <c r="AJ185" s="2"/>
     </row>
-    <row r="186" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>199</v>
       </c>
@@ -16135,7 +16106,7 @@
       <c r="AI186" s="2"/>
       <c r="AJ186" s="2"/>
     </row>
-    <row r="187" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>199</v>
       </c>
@@ -16213,7 +16184,7 @@
       <c r="AI187" s="2"/>
       <c r="AJ187" s="2"/>
     </row>
-    <row r="188" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>199</v>
       </c>
@@ -16291,7 +16262,7 @@
       <c r="AI188" s="2"/>
       <c r="AJ188" s="2"/>
     </row>
-    <row r="189" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>199</v>
       </c>
@@ -16369,7 +16340,7 @@
       <c r="AI189" s="2"/>
       <c r="AJ189" s="2"/>
     </row>
-    <row r="190" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>199</v>
       </c>
@@ -16447,7 +16418,7 @@
       <c r="AI190" s="2"/>
       <c r="AJ190" s="2"/>
     </row>
-    <row r="191" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>199</v>
       </c>
@@ -16525,7 +16496,7 @@
       <c r="AI191" s="2"/>
       <c r="AJ191" s="2"/>
     </row>
-    <row r="192" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>199</v>
       </c>
@@ -16603,7 +16574,7 @@
       <c r="AI192" s="2"/>
       <c r="AJ192" s="2"/>
     </row>
-    <row r="193" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>199</v>
       </c>
@@ -16681,7 +16652,7 @@
       <c r="AI193" s="2"/>
       <c r="AJ193" s="2"/>
     </row>
-    <row r="194" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>199</v>
       </c>
@@ -16759,7 +16730,7 @@
       <c r="AI194" s="2"/>
       <c r="AJ194" s="2"/>
     </row>
-    <row r="195" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>199</v>
       </c>
@@ -16837,7 +16808,7 @@
       <c r="AI195" s="2"/>
       <c r="AJ195" s="2"/>
     </row>
-    <row r="196" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>199</v>
       </c>
@@ -16915,7 +16886,7 @@
       <c r="AI196" s="2"/>
       <c r="AJ196" s="2"/>
     </row>
-    <row r="197" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>199</v>
       </c>
@@ -16993,7 +16964,7 @@
       <c r="AI197" s="2"/>
       <c r="AJ197" s="2"/>
     </row>
-    <row r="198" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>199</v>
       </c>
@@ -17071,7 +17042,7 @@
       <c r="AI198" s="2"/>
       <c r="AJ198" s="2"/>
     </row>
-    <row r="199" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>199</v>
       </c>
@@ -17149,7 +17120,7 @@
       <c r="AI199" s="2"/>
       <c r="AJ199" s="2"/>
     </row>
-    <row r="200" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>199</v>
       </c>
@@ -17227,7 +17198,7 @@
       <c r="AI200" s="2"/>
       <c r="AJ200" s="2"/>
     </row>
-    <row r="201" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>199</v>
       </c>
@@ -17305,7 +17276,7 @@
       <c r="AI201" s="2"/>
       <c r="AJ201" s="2"/>
     </row>
-    <row r="202" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>199</v>
       </c>
@@ -17383,7 +17354,7 @@
       <c r="AI202" s="2"/>
       <c r="AJ202" s="2"/>
     </row>
-    <row r="203" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>199</v>
       </c>
@@ -17461,7 +17432,7 @@
       <c r="AI203" s="2"/>
       <c r="AJ203" s="2"/>
     </row>
-    <row r="204" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>199</v>
       </c>
@@ -17539,7 +17510,7 @@
       <c r="AI204" s="2"/>
       <c r="AJ204" s="2"/>
     </row>
-    <row r="205" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>199</v>
       </c>
@@ -17617,7 +17588,7 @@
       <c r="AI205" s="2"/>
       <c r="AJ205" s="2"/>
     </row>
-    <row r="206" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>199</v>
       </c>
@@ -17695,7 +17666,7 @@
       <c r="AI206" s="2"/>
       <c r="AJ206" s="2"/>
     </row>
-    <row r="207" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>199</v>
       </c>
@@ -17773,7 +17744,7 @@
       <c r="AI207" s="2"/>
       <c r="AJ207" s="2"/>
     </row>
-    <row r="208" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>199</v>
       </c>
@@ -17851,7 +17822,7 @@
       <c r="AI208" s="2"/>
       <c r="AJ208" s="2"/>
     </row>
-    <row r="209" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>199</v>
       </c>
@@ -17929,7 +17900,7 @@
       <c r="AI209" s="2"/>
       <c r="AJ209" s="2"/>
     </row>
-    <row r="210" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>199</v>
       </c>
@@ -18007,7 +17978,7 @@
       <c r="AI210" s="2"/>
       <c r="AJ210" s="2"/>
     </row>
-    <row r="211" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>199</v>
       </c>
@@ -18085,7 +18056,7 @@
       <c r="AI211" s="2"/>
       <c r="AJ211" s="2"/>
     </row>
-    <row r="212" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>199</v>
       </c>
@@ -18163,7 +18134,7 @@
       <c r="AI212" s="2"/>
       <c r="AJ212" s="2"/>
     </row>
-    <row r="213" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>199</v>
       </c>
@@ -18241,7 +18212,7 @@
       <c r="AI213" s="2"/>
       <c r="AJ213" s="2"/>
     </row>
-    <row r="214" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>199</v>
       </c>
@@ -18319,7 +18290,7 @@
       <c r="AI214" s="2"/>
       <c r="AJ214" s="2"/>
     </row>
-    <row r="215" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>199</v>
       </c>
@@ -18397,7 +18368,7 @@
       <c r="AI215" s="2"/>
       <c r="AJ215" s="2"/>
     </row>
-    <row r="216" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>199</v>
       </c>
@@ -18475,7 +18446,7 @@
       <c r="AI216" s="2"/>
       <c r="AJ216" s="2"/>
     </row>
-    <row r="217" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>199</v>
       </c>
@@ -18553,7 +18524,7 @@
       <c r="AI217" s="2"/>
       <c r="AJ217" s="2"/>
     </row>
-    <row r="218" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>199</v>
       </c>
@@ -18631,7 +18602,7 @@
       <c r="AI218" s="2"/>
       <c r="AJ218" s="2"/>
     </row>
-    <row r="219" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>199</v>
       </c>
@@ -18709,7 +18680,7 @@
       <c r="AI219" s="2"/>
       <c r="AJ219" s="2"/>
     </row>
-    <row r="220" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>199</v>
       </c>
@@ -18787,7 +18758,7 @@
       <c r="AI220" s="2"/>
       <c r="AJ220" s="2"/>
     </row>
-    <row r="221" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>199</v>
       </c>
@@ -18865,7 +18836,7 @@
       <c r="AI221" s="2"/>
       <c r="AJ221" s="2"/>
     </row>
-    <row r="222" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>199</v>
       </c>
@@ -18943,7 +18914,7 @@
       <c r="AI222" s="2"/>
       <c r="AJ222" s="2"/>
     </row>
-    <row r="223" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>199</v>
       </c>
@@ -19021,7 +18992,7 @@
       <c r="AI223" s="2"/>
       <c r="AJ223" s="2"/>
     </row>
-    <row r="224" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>199</v>
       </c>
@@ -19099,7 +19070,7 @@
       <c r="AI224" s="2"/>
       <c r="AJ224" s="2"/>
     </row>
-    <row r="225" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>199</v>
       </c>
@@ -19177,7 +19148,7 @@
       <c r="AI225" s="2"/>
       <c r="AJ225" s="2"/>
     </row>
-    <row r="226" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>199</v>
       </c>
@@ -19255,7 +19226,7 @@
       <c r="AI226" s="2"/>
       <c r="AJ226" s="2"/>
     </row>
-    <row r="227" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>199</v>
       </c>
@@ -19333,7 +19304,7 @@
       <c r="AI227" s="2"/>
       <c r="AJ227" s="2"/>
     </row>
-    <row r="228" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>199</v>
       </c>
@@ -19411,7 +19382,7 @@
       <c r="AI228" s="2"/>
       <c r="AJ228" s="2"/>
     </row>
-    <row r="229" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>199</v>
       </c>
@@ -19489,7 +19460,7 @@
       <c r="AI229" s="2"/>
       <c r="AJ229" s="2"/>
     </row>
-    <row r="230" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>199</v>
       </c>
@@ -19567,7 +19538,7 @@
       <c r="AI230" s="2"/>
       <c r="AJ230" s="2"/>
     </row>
-    <row r="231" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>199</v>
       </c>
@@ -19645,7 +19616,7 @@
       <c r="AI231" s="2"/>
       <c r="AJ231" s="2"/>
     </row>
-    <row r="232" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>199</v>
       </c>
@@ -19723,7 +19694,7 @@
       <c r="AI232" s="2"/>
       <c r="AJ232" s="2"/>
     </row>
-    <row r="233" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>199</v>
       </c>
@@ -19801,7 +19772,7 @@
       <c r="AI233" s="2"/>
       <c r="AJ233" s="2"/>
     </row>
-    <row r="234" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>199</v>
       </c>
@@ -19879,7 +19850,7 @@
       <c r="AI234" s="2"/>
       <c r="AJ234" s="2"/>
     </row>
-    <row r="235" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>199</v>
       </c>
@@ -19957,7 +19928,7 @@
       <c r="AI235" s="2"/>
       <c r="AJ235" s="2"/>
     </row>
-    <row r="236" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>199</v>
       </c>
@@ -20035,7 +20006,7 @@
       <c r="AI236" s="2"/>
       <c r="AJ236" s="2"/>
     </row>
-    <row r="237" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>199</v>
       </c>
@@ -20113,7 +20084,7 @@
       <c r="AI237" s="2"/>
       <c r="AJ237" s="2"/>
     </row>
-    <row r="238" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>199</v>
       </c>
@@ -20191,7 +20162,7 @@
       <c r="AI238" s="2"/>
       <c r="AJ238" s="2"/>
     </row>
-    <row r="239" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>199</v>
       </c>
@@ -20269,7 +20240,7 @@
       <c r="AI239" s="2"/>
       <c r="AJ239" s="2"/>
     </row>
-    <row r="240" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>199</v>
       </c>
@@ -20347,7 +20318,7 @@
       <c r="AI240" s="2"/>
       <c r="AJ240" s="2"/>
     </row>
-    <row r="241" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>199</v>
       </c>
@@ -20425,7 +20396,7 @@
       <c r="AI241" s="2"/>
       <c r="AJ241" s="2"/>
     </row>
-    <row r="242" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>199</v>
       </c>
@@ -20503,7 +20474,7 @@
       <c r="AI242" s="2"/>
       <c r="AJ242" s="2"/>
     </row>
-    <row r="243" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>199</v>
       </c>
@@ -20581,7 +20552,7 @@
       <c r="AI243" s="2"/>
       <c r="AJ243" s="2"/>
     </row>
-    <row r="244" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>199</v>
       </c>
@@ -20659,7 +20630,7 @@
       <c r="AI244" s="2"/>
       <c r="AJ244" s="2"/>
     </row>
-    <row r="245" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>199</v>
       </c>
@@ -20737,7 +20708,7 @@
       <c r="AI245" s="2"/>
       <c r="AJ245" s="2"/>
     </row>
-    <row r="246" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>199</v>
       </c>
@@ -20815,7 +20786,7 @@
       <c r="AI246" s="2"/>
       <c r="AJ246" s="2"/>
     </row>
-    <row r="247" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>199</v>
       </c>
@@ -20893,7 +20864,7 @@
       <c r="AI247" s="2"/>
       <c r="AJ247" s="2"/>
     </row>
-    <row r="248" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>199</v>
       </c>
@@ -20971,7 +20942,7 @@
       <c r="AI248" s="2"/>
       <c r="AJ248" s="2"/>
     </row>
-    <row r="249" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>199</v>
       </c>
@@ -21049,7 +21020,7 @@
       <c r="AI249" s="2"/>
       <c r="AJ249" s="2"/>
     </row>
-    <row r="250" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>199</v>
       </c>
@@ -21127,7 +21098,7 @@
       <c r="AI250" s="2"/>
       <c r="AJ250" s="2"/>
     </row>
-    <row r="251" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>199</v>
       </c>
@@ -21205,7 +21176,7 @@
       <c r="AI251" s="2"/>
       <c r="AJ251" s="2"/>
     </row>
-    <row r="252" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>199</v>
       </c>
@@ -21283,7 +21254,7 @@
       <c r="AI252" s="2"/>
       <c r="AJ252" s="2"/>
     </row>
-    <row r="253" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>199</v>
       </c>
@@ -21361,7 +21332,7 @@
       <c r="AI253" s="2"/>
       <c r="AJ253" s="2"/>
     </row>
-    <row r="254" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>199</v>
       </c>
@@ -21439,7 +21410,7 @@
       <c r="AI254" s="2"/>
       <c r="AJ254" s="2"/>
     </row>
-    <row r="255" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>199</v>
       </c>
@@ -21517,7 +21488,7 @@
       <c r="AI255" s="2"/>
       <c r="AJ255" s="2"/>
     </row>
-    <row r="256" spans="1:36" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>397</v>
       </c>
@@ -21576,7 +21547,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="257" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>397</v>
       </c>
@@ -21635,7 +21606,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="258" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>397</v>
       </c>
@@ -21694,7 +21665,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="259" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>397</v>
       </c>
@@ -21753,7 +21724,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="260" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>397</v>
       </c>
@@ -21812,7 +21783,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="261" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>397</v>
       </c>
@@ -21871,7 +21842,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="262" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>397</v>
       </c>
@@ -21930,7 +21901,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="263" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>397</v>
       </c>
@@ -21989,7 +21960,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="264" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>397</v>
       </c>
@@ -22048,7 +22019,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="265" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>397</v>
       </c>
@@ -22107,7 +22078,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="266" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>397</v>
       </c>
@@ -22166,7 +22137,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="267" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>397</v>
       </c>
@@ -22225,7 +22196,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="268" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>397</v>
       </c>
@@ -22284,7 +22255,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="269" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>397</v>
       </c>
@@ -22343,7 +22314,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="270" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>397</v>
       </c>
@@ -22402,7 +22373,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="271" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>397</v>
       </c>
@@ -22461,7 +22432,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="272" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>397</v>
       </c>
@@ -22520,7 +22491,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="273" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>397</v>
       </c>
@@ -22579,7 +22550,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="274" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>397</v>
       </c>
@@ -22638,7 +22609,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="275" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>397</v>
       </c>
@@ -22697,7 +22668,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="276" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>418</v>
       </c>
@@ -22759,7 +22730,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="277" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>418</v>
       </c>
@@ -22821,7 +22792,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="278" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>418</v>
       </c>
@@ -22883,7 +22854,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="279" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>418</v>
       </c>
@@ -22945,7 +22916,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="280" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>418</v>
       </c>
@@ -23007,7 +22978,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="281" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>418</v>
       </c>
@@ -23069,7 +23040,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="282" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>418</v>
       </c>
@@ -23131,7 +23102,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="283" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>418</v>
       </c>
@@ -23193,7 +23164,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="284" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>418</v>
       </c>
@@ -23255,7 +23226,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="285" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>418</v>
       </c>
@@ -23317,7 +23288,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="286" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>418</v>
       </c>
@@ -23379,7 +23350,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="287" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>418</v>
       </c>
@@ -23441,7 +23412,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="288" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>418</v>
       </c>
@@ -23503,7 +23474,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="289" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>418</v>
       </c>
@@ -23565,7 +23536,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="290" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>418</v>
       </c>
@@ -23627,7 +23598,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="291" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>418</v>
       </c>
@@ -23689,7 +23660,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="292" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>418</v>
       </c>
@@ -23751,7 +23722,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="293" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>418</v>
       </c>
@@ -23813,7 +23784,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="294" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>418</v>
       </c>
@@ -23875,7 +23846,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="295" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>418</v>
       </c>
@@ -23937,7 +23908,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="296" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>418</v>
       </c>
@@ -23999,7 +23970,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="297" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>418</v>
       </c>
@@ -24061,7 +24032,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="298" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>418</v>
       </c>
@@ -24123,7 +24094,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="299" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>418</v>
       </c>
@@ -24185,7 +24156,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="300" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>418</v>
       </c>
@@ -24247,7 +24218,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="301" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>418</v>
       </c>
@@ -24309,7 +24280,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="302" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>418</v>
       </c>
@@ -24371,7 +24342,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="303" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>418</v>
       </c>
@@ -24433,7 +24404,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="304" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>418</v>
       </c>
@@ -24495,7 +24466,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="305" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>418</v>
       </c>
@@ -24557,7 +24528,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="306" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>418</v>
       </c>
@@ -24619,7 +24590,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="307" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>418</v>
       </c>
@@ -24681,7 +24652,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="308" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>418</v>
       </c>
@@ -24743,7 +24714,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="309" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>418</v>
       </c>
@@ -24805,7 +24776,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="310" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>418</v>
       </c>
@@ -24867,7 +24838,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="311" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>418</v>
       </c>
@@ -24929,7 +24900,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="312" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>418</v>
       </c>
@@ -24991,7 +24962,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="313" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>418</v>
       </c>
@@ -25053,7 +25024,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="314" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>418</v>
       </c>
@@ -25115,7 +25086,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="315" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>418</v>
       </c>
@@ -25177,7 +25148,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="316" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>418</v>
       </c>
@@ -25239,7 +25210,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="317" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>418</v>
       </c>
@@ -25301,7 +25272,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="318" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>418</v>
       </c>
@@ -25363,7 +25334,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="319" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>418</v>
       </c>
@@ -25425,7 +25396,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="320" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>418</v>
       </c>
@@ -25487,7 +25458,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="321" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>418</v>
       </c>
@@ -25549,7 +25520,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="322" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>418</v>
       </c>
@@ -25611,7 +25582,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="323" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>418</v>
       </c>
@@ -25673,7 +25644,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="324" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>483</v>
       </c>
@@ -25735,7 +25706,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="325" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>483</v>
       </c>
@@ -25797,7 +25768,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="326" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>483</v>
       </c>
@@ -25859,7 +25830,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="327" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>483</v>
       </c>
@@ -25921,7 +25892,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="328" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>483</v>
       </c>
@@ -25983,7 +25954,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="329" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>483</v>
       </c>
@@ -26045,7 +26016,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="330" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>483</v>
       </c>
@@ -31890,7 +31861,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="422" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>551</v>
       </c>
@@ -31952,7 +31923,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="423" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>551</v>
       </c>
@@ -32014,7 +31985,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="424" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>551</v>
       </c>
@@ -32076,7 +32047,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="425" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>551</v>
       </c>
@@ -32138,7 +32109,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="426" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>551</v>
       </c>
@@ -32200,7 +32171,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="427" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>551</v>
       </c>
@@ -32262,7 +32233,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="428" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>551</v>
       </c>
@@ -32324,7 +32295,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="429" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>551</v>
       </c>
@@ -32386,7 +32357,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="430" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>551</v>
       </c>
@@ -32448,7 +32419,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="431" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>551</v>
       </c>
@@ -32510,7 +32481,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="432" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>551</v>
       </c>
@@ -32572,7 +32543,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="433" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>551</v>
       </c>
@@ -32634,7 +32605,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="434" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>551</v>
       </c>
@@ -32696,7 +32667,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="435" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>551</v>
       </c>
@@ -32758,7 +32729,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="436" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>551</v>
       </c>
@@ -32820,7 +32791,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="437" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>551</v>
       </c>
@@ -32882,7 +32853,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="438" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>551</v>
       </c>
@@ -32944,7 +32915,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="439" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>551</v>
       </c>
@@ -33006,7 +32977,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="440" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>551</v>
       </c>
@@ -33068,7 +33039,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="441" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>551</v>
       </c>
@@ -33130,7 +33101,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="442" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>551</v>
       </c>
@@ -33192,7 +33163,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="443" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>551</v>
       </c>
@@ -33254,7 +33225,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="444" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>551</v>
       </c>
@@ -33316,7 +33287,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="445" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>551</v>
       </c>
@@ -33378,7 +33349,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="446" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>587</v>
       </c>
@@ -33440,7 +33411,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="447" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>587</v>
       </c>
@@ -33502,7 +33473,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="448" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>587</v>
       </c>
@@ -33564,7 +33535,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="449" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>587</v>
       </c>
@@ -33626,7 +33597,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="450" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>587</v>
       </c>
@@ -33688,7 +33659,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="451" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>587</v>
       </c>
@@ -33750,7 +33721,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="452" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>587</v>
       </c>
@@ -33812,7 +33783,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="453" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>587</v>
       </c>
@@ -33874,7 +33845,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="454" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>587</v>
       </c>
@@ -33936,7 +33907,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="455" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>587</v>
       </c>
@@ -33998,7 +33969,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="456" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>587</v>
       </c>
@@ -34060,7 +34031,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="457" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>587</v>
       </c>
@@ -34122,7 +34093,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="458" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>587</v>
       </c>
@@ -34184,7 +34155,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="459" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>587</v>
       </c>
@@ -34246,7 +34217,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="460" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>587</v>
       </c>
@@ -34308,7 +34279,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="461" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>587</v>
       </c>
@@ -34370,7 +34341,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="462" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>587</v>
       </c>
@@ -34432,7 +34403,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="463" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>587</v>
       </c>
@@ -34494,7 +34465,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="464" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>587</v>
       </c>
@@ -34556,7 +34527,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="465" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>587</v>
       </c>
@@ -34618,7 +34589,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="466" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>587</v>
       </c>
@@ -34680,7 +34651,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="467" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>587</v>
       </c>
@@ -34742,7 +34713,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="468" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>587</v>
       </c>
@@ -34804,7 +34775,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="469" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>587</v>
       </c>
@@ -34866,7 +34837,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="470" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>587</v>
       </c>
@@ -34928,7 +34899,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="471" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>587</v>
       </c>
@@ -34990,7 +34961,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="472" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>587</v>
       </c>
@@ -35052,7 +35023,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="473" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>587</v>
       </c>
@@ -35114,7 +35085,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="474" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>587</v>
       </c>
@@ -35176,7 +35147,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="475" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>587</v>
       </c>
@@ -35238,7 +35209,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="476" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>587</v>
       </c>
@@ -35300,7 +35271,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="477" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>587</v>
       </c>
@@ -35362,7 +35333,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="478" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>587</v>
       </c>
@@ -35424,7 +35395,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="479" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>587</v>
       </c>
@@ -35486,7 +35457,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="480" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>587</v>
       </c>
@@ -35548,7 +35519,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="481" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>587</v>
       </c>
@@ -35610,7 +35581,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="482" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>587</v>
       </c>
@@ -35675,7 +35646,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="483" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>587</v>
       </c>
@@ -35740,7 +35711,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="484" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>587</v>
       </c>
@@ -35805,7 +35776,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="485" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>659</v>
       </c>
@@ -35867,7 +35838,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="486" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>659</v>
       </c>
@@ -35929,7 +35900,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="487" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>659</v>
       </c>
@@ -35991,7 +35962,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="488" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>659</v>
       </c>
@@ -36053,7 +36024,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="489" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>670</v>
       </c>
@@ -36128,7 +36099,7 @@
       <c r="AG489" s="2"/>
       <c r="AH489" s="2"/>
     </row>
-    <row r="490" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>670</v>
       </c>
@@ -36203,7 +36174,7 @@
       <c r="AG490" s="2"/>
       <c r="AH490" s="2"/>
     </row>
-    <row r="491" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>670</v>
       </c>
@@ -36278,7 +36249,7 @@
       <c r="AG491" s="2"/>
       <c r="AH491" s="2"/>
     </row>
-    <row r="492" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>670</v>
       </c>
@@ -36353,7 +36324,7 @@
       <c r="AG492" s="2"/>
       <c r="AH492" s="2"/>
     </row>
-    <row r="493" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>670</v>
       </c>
@@ -36428,7 +36399,7 @@
       <c r="AG493" s="2"/>
       <c r="AH493" s="2"/>
     </row>
-    <row r="494" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>670</v>
       </c>
@@ -36503,7 +36474,7 @@
       <c r="AG494" s="2"/>
       <c r="AH494" s="2"/>
     </row>
-    <row r="495" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>670</v>
       </c>
@@ -36578,7 +36549,7 @@
       <c r="AG495" s="2"/>
       <c r="AH495" s="2"/>
     </row>
-    <row r="496" spans="1:34" hidden="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>1552</v>
       </c>
@@ -36640,7 +36611,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="497" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>687</v>
       </c>
@@ -36702,7 +36673,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="498" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>687</v>
       </c>
@@ -36764,7 +36735,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="499" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>687</v>
       </c>
@@ -36826,7 +36797,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="500" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>687</v>
       </c>
@@ -36888,7 +36859,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="501" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>687</v>
       </c>
@@ -36950,7 +36921,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="502" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>687</v>
       </c>
@@ -37012,7 +36983,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="503" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>687</v>
       </c>
@@ -37074,7 +37045,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="504" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>687</v>
       </c>
@@ -37136,7 +37107,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="505" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>687</v>
       </c>
@@ -37198,7 +37169,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="506" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>687</v>
       </c>
@@ -37260,7 +37231,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="507" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>687</v>
       </c>
@@ -37322,7 +37293,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="508" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>687</v>
       </c>
@@ -37384,7 +37355,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="509" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>687</v>
       </c>
@@ -37446,7 +37417,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="510" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>687</v>
       </c>
@@ -37508,7 +37479,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="511" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>687</v>
       </c>
@@ -37570,7 +37541,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="512" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>687</v>
       </c>
@@ -37632,7 +37603,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="513" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>687</v>
       </c>
@@ -37694,7 +37665,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="514" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>687</v>
       </c>
@@ -37756,7 +37727,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="515" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>687</v>
       </c>
@@ -37818,7 +37789,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="516" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>687</v>
       </c>
@@ -37880,7 +37851,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="517" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>687</v>
       </c>
@@ -37942,7 +37913,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="518" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>687</v>
       </c>
@@ -38004,7 +37975,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="519" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>687</v>
       </c>
@@ -38066,7 +38037,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="520" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>687</v>
       </c>
@@ -38128,7 +38099,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="521" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>687</v>
       </c>
@@ -38190,7 +38161,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="522" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>687</v>
       </c>
@@ -38252,7 +38223,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="523" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>687</v>
       </c>
@@ -38314,7 +38285,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="524" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>687</v>
       </c>
@@ -38376,7 +38347,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="525" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>687</v>
       </c>
@@ -38438,7 +38409,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="526" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>687</v>
       </c>
@@ -38500,7 +38471,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="527" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>687</v>
       </c>
@@ -38562,7 +38533,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="528" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>687</v>
       </c>
@@ -38624,7 +38595,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="529" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>687</v>
       </c>
@@ -38686,7 +38657,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="530" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>687</v>
       </c>
@@ -38748,7 +38719,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="531" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>687</v>
       </c>
@@ -38810,7 +38781,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="532" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>687</v>
       </c>
@@ -38872,7 +38843,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="533" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>687</v>
       </c>
@@ -38934,7 +38905,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="534" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>687</v>
       </c>
@@ -38996,7 +38967,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="535" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>687</v>
       </c>
@@ -39058,7 +39029,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="536" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>687</v>
       </c>
@@ -39120,7 +39091,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="537" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>687</v>
       </c>
@@ -39182,7 +39153,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="538" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>687</v>
       </c>
@@ -39244,7 +39215,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="539" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>687</v>
       </c>
@@ -39306,7 +39277,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="540" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>687</v>
       </c>
@@ -39368,7 +39339,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="541" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>687</v>
       </c>
@@ -39430,7 +39401,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="542" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>687</v>
       </c>
@@ -39492,7 +39463,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="543" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>687</v>
       </c>
@@ -39554,7 +39525,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="544" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>718</v>
       </c>
@@ -39616,7 +39587,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="545" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>718</v>
       </c>
@@ -39678,7 +39649,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="546" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>718</v>
       </c>
@@ -39740,7 +39711,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="547" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>725</v>
       </c>
@@ -39796,7 +39767,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="548" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>725</v>
       </c>
@@ -39852,7 +39823,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="549" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>725</v>
       </c>
@@ -39908,75 +39879,13 @@
         <v>729</v>
       </c>
     </row>
-    <row r="550" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A550">
-        <v>1987</v>
-      </c>
-      <c r="B550" t="s">
-        <v>866</v>
-      </c>
-      <c r="C550" t="s">
-        <v>832</v>
-      </c>
-      <c r="D550" t="s">
-        <v>867</v>
-      </c>
-      <c r="E550" t="s">
-        <v>868</v>
-      </c>
+    <row r="550" spans="1:21" x14ac:dyDescent="0.35">
       <c r="F550" s="5"/>
       <c r="G550" s="5"/>
-      <c r="H550" t="s">
-        <v>869</v>
-      </c>
       <c r="L550" s="3"/>
-      <c r="M550">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="551" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A551">
-        <v>2345</v>
-      </c>
-      <c r="B551" t="s">
-        <v>870</v>
-      </c>
-      <c r="C551" t="s">
-        <v>832</v>
-      </c>
-      <c r="D551" t="s">
-        <v>867</v>
-      </c>
-      <c r="E551" t="s">
-        <v>868</v>
-      </c>
-      <c r="F551" s="5"/>
-      <c r="G551" s="5"/>
-      <c r="H551" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="L551" s="3"/>
-      <c r="M551">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="552" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="F552" s="5"/>
-      <c r="G552" s="5"/>
-      <c r="L552" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ551" xr:uid="{96CF3E12-64D3-4033-AC10-EC69074F9C54}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="713"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="H551" r:id="rId1" display="https://www.ajtmh.org/content/journals/10.4269/ajtmh.2010.09-0291" xr:uid="{9F5755AB-DC5D-42BD-9B4C-7A00AC9EBBC7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>